--- a/Service.Report/wwwroot/layout/excel/Indicators/CostoTomaListado.xlsx
+++ b/Service.Report/wwwroot/layout/excel/Indicators/CostoTomaListado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuanDanielGonzalezAl\Documents\Projects\API\Service.Report\wwwroot\layout\excel\Indicators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1ED12B-60AD-45FD-B5C8-9228EE4F5BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513A8E5D-BFE6-4C84-802A-12DA946D5CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CostosToma" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <r>
       <rPr>
@@ -83,6 +83,9 @@
   <si>
     <t>{{item.FechaAlta}}</t>
   </si>
+  <si>
+    <t>{{item.CostoToma}}</t>
+  </si>
 </sst>
 </file>
 
@@ -136,12 +139,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -156,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -165,11 +174,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -193,7 +223,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>773907</xdr:colOff>
+      <xdr:colOff>547688</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1466850</xdr:rowOff>
     </xdr:to>
@@ -537,13 +567,15 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="4" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" customWidth="1"/>
     <col min="5" max="5" width="23.140625" customWidth="1"/>
     <col min="6" max="6" width="28.28515625" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" customWidth="1"/>
@@ -563,13 +595,13 @@
       <c r="H1" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="1"/>
@@ -578,13 +610,13 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>8.5</v>
+      <c r="A4" s="4" t="s">
+        <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -595,6 +627,11 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
+  <conditionalFormatting sqref="A4:C4">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A4))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Service.Report/wwwroot/layout/excel/Indicators/CostoTomaListado.xlsx
+++ b/Service.Report/wwwroot/layout/excel/Indicators/CostoTomaListado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuanDanielGonzalezAl\Documents\Projects\API\Service.Report\wwwroot\layout\excel\Indicators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513A8E5D-BFE6-4C84-802A-12DA946D5CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1C316F-276E-4C0A-964E-5F8D245420B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="CostosToma" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CostoToma">CostosToma!$A$4:$C$5</definedName>
+    <definedName name="CostosToma">CostosToma!$A$4:$C$5</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -172,26 +172,19 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -567,7 +560,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,25 +576,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="1"/>
@@ -610,13 +603,13 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -628,7 +621,7 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:C4">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="2">
       <formula>LEN(TRIM(A4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Service.Report/wwwroot/layout/excel/Indicators/CostoTomaListado.xlsx
+++ b/Service.Report/wwwroot/layout/excel/Indicators/CostoTomaListado.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuanDanielGonzalezAl\Documents\Projects\API\Service.Report\wwwroot\layout\excel\Indicators\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuanDanielGonzalezAl\Documents\Proyectos\API\Service.Report\wwwroot\layout\excel\Indicators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1C316F-276E-4C0A-964E-5F8D245420B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F6AE90-69AB-4B71-9D26-2C6401B6A9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="CostosToma" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CostosToma">CostosToma!$A$4:$C$5</definedName>
+    <definedName name="CostosToma">CostosToma!$A$4:$D$5</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <r>
       <rPr>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>{{item.CostoToma}}</t>
+  </si>
+  <si>
+    <t>Fecha Modificó</t>
+  </si>
+  <si>
+    <t>{{item.FechaModificacion}}</t>
   </si>
 </sst>
 </file>
@@ -560,7 +566,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,7 +603,9 @@
       <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -611,6 +619,9 @@
       </c>
       <c r="C4" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -620,7 +631,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A4:C4">
+  <conditionalFormatting sqref="A4:D4">
     <cfRule type="notContainsBlanks" dxfId="0" priority="2">
       <formula>LEN(TRIM(A4))&gt;0</formula>
     </cfRule>

--- a/Service.Report/wwwroot/layout/excel/Indicators/CostoTomaListado.xlsx
+++ b/Service.Report/wwwroot/layout/excel/Indicators/CostoTomaListado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuanDanielGonzalezAl\Documents\Proyectos\API\Service.Report\wwwroot\layout\excel\Indicators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F6AE90-69AB-4B71-9D26-2C6401B6A9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F995B611-CB8D-42E1-B151-525631C255E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,7 +90,7 @@
     <t>Fecha Modificó</t>
   </si>
   <si>
-    <t>{{item.FechaModificacion}}</t>
+    <t>{{item.FechaMod}}</t>
   </si>
 </sst>
 </file>
@@ -566,7 +566,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
